--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\KiCad_Projects\GBC\GBC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\KiCad_Projects\GBC\GBC\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8092C22D-B54A-47F7-A062-F9A19795EF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EBA6F3-0AE9-4C6C-8070-D65C8A94C116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t xml:space="preserve">NCP718ASN300T1G </t>
   </si>
   <si>
-    <t xml:space="preserve">BAT 63-02V H6327 </t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>C2, C3, C4, C5, C6, C7, C8, C9, C12, C13, C14, C15, C16, C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT54W-HG3-18 </t>
   </si>
 </sst>
 </file>
@@ -238,11 +238,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -549,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,7 +559,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +593,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -614,7 +613,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -634,12 +633,12 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -654,7 +653,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -686,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>41</v>
@@ -719,7 +718,7 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\KiCad_Projects\GBC\GBC\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EBA6F3-0AE9-4C6C-8070-D65C8A94C116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A29C35-60C0-45B2-A950-EF75B108C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
   </bookViews>
@@ -196,7 +196,7 @@
     <t>C2, C3, C4, C5, C6, C7, C8, C9, C12, C13, C14, C15, C16, C17</t>
   </si>
   <si>
-    <t xml:space="preserve">BAT54W-HG3-18 </t>
+    <t>BAT54W-HG3-18 (or BAT 63-02V H6327 )</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
     <col min="1" max="1" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\KiCad_Projects\GBC\GBC\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A29C35-60C0-45B2-A950-EF75B108C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0F359-12D5-463C-A566-E7A36C944127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
   </bookViews>
@@ -56,12 +56,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
     <t>Capacitor Ceramic (X7R)</t>
   </si>
   <si>
@@ -197,6 +191,12 @@
   </si>
   <si>
     <t>BAT54W-HG3-18 (or BAT 63-02V H6327 )</t>
+  </si>
+  <si>
+    <t>0603 (imperial)</t>
+  </si>
+  <si>
+    <t>1206 (imperial)</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,242 +593,242 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\KiCad_Projects\GBC\GBC\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0F359-12D5-463C-A566-E7A36C944127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CAD804-BAD6-48AA-AF50-A4EB8DD97150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Reference</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>1206 (imperial)</t>
+  </si>
+  <si>
+    <t>SOT-123</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>47</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\KiCad_Projects\GBC\GBC\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CAD804-BAD6-48AA-AF50-A4EB8DD97150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FC9F7-186A-4293-B278-3FF2FD87F5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Reference</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>SOT-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74AHC1G04SE-7 </t>
+  </si>
+  <si>
+    <t>Inverter Alternatives:</t>
+  </si>
+  <si>
+    <t>74LVC1G06SE-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC7S04FU,LF </t>
   </si>
 </sst>
 </file>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BE9637-B0A4-47F8-B931-7D56DE508B36}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,9 +584,10 @@
     <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +606,11 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -613,8 +629,11 @@
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -633,8 +652,11 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -653,8 +675,11 @@
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -674,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -694,7 +719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -714,7 +739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -734,7 +759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -754,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -773,8 +798,10 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -794,7 +821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -814,7 +841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\KiCad_Projects\GBC\GBC\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FC9F7-186A-4293-B278-3FF2FD87F5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85D9D8-7799-4D0B-8C81-1D073EC24994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Reference</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t xml:space="preserve">TC7S04FU,LF </t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>C2, C3, C4, C5, C6, C7, C8, C9, C12, C13, C14, C15, C17, C19</t>
   </si>
 </sst>
 </file>
@@ -574,16 +580,15 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,15 +603,18 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -621,15 +629,18 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -644,15 +655,18 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -667,15 +681,18 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -690,12 +707,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -710,12 +730,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -730,12 +753,15 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -750,12 +776,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -770,12 +799,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -790,15 +822,17 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -812,12 +846,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -832,12 +869,15 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -852,12 +892,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\KiCad_Projects\GBC\GBC\Gerbers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85D9D8-7799-4D0B-8C81-1D073EC24994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373D99B4-58EE-42EF-B5C7-DAA502F81724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
   </bookViews>
@@ -199,9 +199,6 @@
     <t>1206 (imperial)</t>
   </si>
   <si>
-    <t>SOT-123</t>
-  </si>
-  <si>
     <t xml:space="preserve">74AHC1G04SE-7 </t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>C2, C3, C4, C5, C6, C7, C8, C9, C12, C13, C14, C15, C17, C19</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>48</v>
@@ -641,7 +641,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>47</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373D99B4-58EE-42EF-B5C7-DAA502F81724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{222F47CA-F5A1-4988-B48F-66DDFB0DF29C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
-  <si>
-    <t>Reference</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Value</t>
   </si>
@@ -187,9 +178,6 @@
     <t>C17</t>
   </si>
   <si>
-    <t>C2, C3, C4, C5, C6, C7, C8, C9, C12, C13, C14, C15, C16, C17</t>
-  </si>
-  <si>
     <t>BAT54W-HG3-18 (or BAT 63-02V H6327 )</t>
   </si>
   <si>
@@ -214,17 +202,17 @@
     <t>References</t>
   </si>
   <si>
-    <t>C2, C3, C4, C5, C6, C7, C8, C9, C12, C13, C14, C15, C17, C19</t>
-  </si>
-  <si>
     <t>SOT-23</t>
+  </si>
+  <si>
+    <t>C2, C3, C4, C5, C6, C7, C8, C9, C12, C13, C14, C15, C16, C19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +253,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -375,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -569,188 +557,169 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BE9637-B0A4-47F8-B931-7D56DE508B36}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -759,67 +728,58 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
@@ -828,80 +788,68 @@
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
